--- a/artfynd/Björnberget NV artfynd.xlsx
+++ b/artfynd/Björnberget NV artfynd.xlsx
@@ -1210,10 +1210,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>120122500</v>
+        <v>120122515</v>
       </c>
       <c r="B7" t="n">
-        <v>78980</v>
+        <v>91263</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,21 +1221,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>684352</v>
+        <v>684273</v>
       </c>
       <c r="R7" t="n">
-        <v>7093728</v>
+        <v>7094150</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>120122603</v>
+        <v>120122500</v>
       </c>
       <c r="B8" t="n">
         <v>78980</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>684513</v>
+        <v>684352</v>
       </c>
       <c r="R8" t="n">
-        <v>7093798</v>
+        <v>7093728</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1372,12 +1372,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1404,10 +1404,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>120122515</v>
+        <v>120122603</v>
       </c>
       <c r="B9" t="n">
-        <v>91263</v>
+        <v>78980</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1415,21 +1415,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>684273</v>
+        <v>684513</v>
       </c>
       <c r="R9" t="n">
-        <v>7094150</v>
+        <v>7093798</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1469,12 +1469,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1934,10 +1934,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>120122513</v>
+        <v>120122498</v>
       </c>
       <c r="B14" t="n">
-        <v>80112</v>
+        <v>92535</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1945,21 +1945,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6462</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>684244</v>
+        <v>684478</v>
       </c>
       <c r="R14" t="n">
-        <v>7094112</v>
+        <v>7093927</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2031,10 +2031,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>120122498</v>
+        <v>120122513</v>
       </c>
       <c r="B15" t="n">
-        <v>92535</v>
+        <v>80112</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2042,21 +2042,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>6462</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>684478</v>
+        <v>684244</v>
       </c>
       <c r="R15" t="n">
-        <v>7093927</v>
+        <v>7094112</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16944728</v>
+        <v>16944727</v>
       </c>
       <c r="B35" t="n">
         <v>80083</v>
@@ -4143,32 +4143,32 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>120122502</v>
+        <v>120122596</v>
       </c>
       <c r="B36" t="n">
-        <v>91245</v>
+        <v>91210</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4178,10 +4178,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>684280</v>
+        <v>684500</v>
       </c>
       <c r="R36" t="n">
-        <v>7094021</v>
+        <v>7093584</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4208,12 +4208,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4240,32 +4240,32 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>120122596</v>
+        <v>120122502</v>
       </c>
       <c r="B37" t="n">
-        <v>91210</v>
+        <v>91245</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4275,10 +4275,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>684500</v>
+        <v>684280</v>
       </c>
       <c r="R37" t="n">
-        <v>7093584</v>
+        <v>7094021</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4305,12 +4305,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5158,32 +5158,32 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>120122505</v>
+        <v>120122606</v>
       </c>
       <c r="B46" t="n">
-        <v>80111</v>
+        <v>92527</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6461</v>
+        <v>4361</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5193,10 +5193,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>684262</v>
+        <v>684552</v>
       </c>
       <c r="R46" t="n">
-        <v>7094016</v>
+        <v>7093912</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5223,12 +5223,12 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5255,32 +5255,32 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>120122606</v>
+        <v>120122505</v>
       </c>
       <c r="B47" t="n">
-        <v>92527</v>
+        <v>80111</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4361</v>
+        <v>6461</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5290,10 +5290,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>684552</v>
+        <v>684262</v>
       </c>
       <c r="R47" t="n">
-        <v>7093912</v>
+        <v>7094016</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5320,12 +5320,12 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD47" t="b">

--- a/artfynd/Björnberget NV artfynd.xlsx
+++ b/artfynd/Björnberget NV artfynd.xlsx
@@ -792,32 +792,32 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>120122600</v>
+        <v>120122519</v>
       </c>
       <c r="B3" t="n">
-        <v>91245</v>
+        <v>80111</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>6461</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>684484</v>
+        <v>684310</v>
       </c>
       <c r="R3" t="n">
-        <v>7093785</v>
+        <v>7094174</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,12 +857,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -889,32 +889,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>120122519</v>
+        <v>120122600</v>
       </c>
       <c r="B4" t="n">
-        <v>80111</v>
+        <v>91245</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6461</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>684310</v>
+        <v>684484</v>
       </c>
       <c r="R4" t="n">
-        <v>7094174</v>
+        <v>7093785</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -954,12 +954,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1210,10 +1210,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>120122515</v>
+        <v>120122603</v>
       </c>
       <c r="B7" t="n">
-        <v>91263</v>
+        <v>78980</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,21 +1221,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>684273</v>
+        <v>684513</v>
       </c>
       <c r="R7" t="n">
-        <v>7094150</v>
+        <v>7093798</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1275,12 +1275,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1404,10 +1404,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>120122603</v>
+        <v>120122515</v>
       </c>
       <c r="B9" t="n">
-        <v>78980</v>
+        <v>91263</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1415,21 +1415,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>684513</v>
+        <v>684273</v>
       </c>
       <c r="R9" t="n">
-        <v>7093798</v>
+        <v>7094150</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1469,12 +1469,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1934,10 +1934,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>120122498</v>
+        <v>120122513</v>
       </c>
       <c r="B14" t="n">
-        <v>92535</v>
+        <v>80112</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1945,21 +1945,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>6462</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>684478</v>
+        <v>684244</v>
       </c>
       <c r="R14" t="n">
-        <v>7093927</v>
+        <v>7094112</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2031,10 +2031,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>120122513</v>
+        <v>120122498</v>
       </c>
       <c r="B15" t="n">
-        <v>80112</v>
+        <v>92535</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2042,21 +2042,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6462</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>684244</v>
+        <v>684478</v>
       </c>
       <c r="R15" t="n">
-        <v>7094112</v>
+        <v>7093927</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2419,32 +2419,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16944984</v>
+        <v>16944378</v>
       </c>
       <c r="B19" t="n">
-        <v>80112</v>
+        <v>92529</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6462</v>
+        <v>4362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2454,10 +2454,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>684500</v>
+        <v>685054</v>
       </c>
       <c r="R19" t="n">
-        <v>7093343</v>
+        <v>7093213</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2500,21 +2500,6 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>björkar</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Betula</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Betula</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2531,32 +2516,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>16944378</v>
+        <v>16944984</v>
       </c>
       <c r="B20" t="n">
-        <v>92529</v>
+        <v>80112</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4362</v>
+        <v>6462</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2566,10 +2551,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>685054</v>
+        <v>684500</v>
       </c>
       <c r="R20" t="n">
-        <v>7093213</v>
+        <v>7093343</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2612,6 +2597,21 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>björkar</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2628,10 +2628,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>120122591</v>
+        <v>120122609</v>
       </c>
       <c r="B21" t="n">
-        <v>92551</v>
+        <v>78739</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2639,21 +2639,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2059</v>
+        <v>228912</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>684550</v>
+        <v>684568</v>
       </c>
       <c r="R21" t="n">
-        <v>7093732</v>
+        <v>7093941</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2725,32 +2725,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>120122598</v>
+        <v>120122591</v>
       </c>
       <c r="B22" t="n">
-        <v>5176</v>
+        <v>92551</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100526</v>
+        <v>2059</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2760,10 +2760,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>684461</v>
+        <v>684550</v>
       </c>
       <c r="R22" t="n">
-        <v>7093769</v>
+        <v>7093732</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2822,10 +2822,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>120122510</v>
+        <v>120122497</v>
       </c>
       <c r="B23" t="n">
-        <v>91245</v>
+        <v>92563</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2833,21 +2833,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>5449</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>684030</v>
+        <v>684590</v>
       </c>
       <c r="R23" t="n">
-        <v>7093983</v>
+        <v>7094035</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2919,32 +2919,32 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>120122497</v>
+        <v>120122598</v>
       </c>
       <c r="B24" t="n">
-        <v>92563</v>
+        <v>5176</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5449</v>
+        <v>100526</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2954,10 +2954,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>684590</v>
+        <v>684461</v>
       </c>
       <c r="R24" t="n">
-        <v>7094035</v>
+        <v>7093769</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2984,12 +2984,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3016,10 +3016,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>120122609</v>
+        <v>120122510</v>
       </c>
       <c r="B25" t="n">
-        <v>78739</v>
+        <v>91245</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3027,21 +3027,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>228912</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3051,10 +3051,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>684568</v>
+        <v>684030</v>
       </c>
       <c r="R25" t="n">
-        <v>7093941</v>
+        <v>7093983</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3081,12 +3081,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3225,10 +3225,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>120122516</v>
+        <v>120122499</v>
       </c>
       <c r="B27" t="n">
-        <v>78980</v>
+        <v>78739</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3236,21 +3236,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3260,10 +3260,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>684307</v>
+        <v>684496</v>
       </c>
       <c r="R27" t="n">
-        <v>7094164</v>
+        <v>7093897</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3322,10 +3322,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>120122499</v>
+        <v>120122516</v>
       </c>
       <c r="B28" t="n">
-        <v>78739</v>
+        <v>78980</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3333,21 +3333,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3357,10 +3357,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>684496</v>
+        <v>684307</v>
       </c>
       <c r="R28" t="n">
-        <v>7093897</v>
+        <v>7094164</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3837,45 +3837,45 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>104556979</v>
+        <v>120122593</v>
       </c>
       <c r="B33" t="n">
-        <v>79066</v>
+        <v>92551</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6450</v>
+        <v>2059</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Grundtjärnen, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>684646</v>
+        <v>684583</v>
       </c>
       <c r="R33" t="n">
-        <v>7093617</v>
+        <v>7093396</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3902,12 +3902,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3922,57 +3922,57 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Hanna Bäckman</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Hanna Bäckman</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>120122593</v>
+        <v>104556979</v>
       </c>
       <c r="B34" t="n">
-        <v>92551</v>
+        <v>79066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2059</v>
+        <v>6450</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Grundtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>684583</v>
+        <v>684646</v>
       </c>
       <c r="R34" t="n">
-        <v>7093396</v>
+        <v>7093617</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3999,12 +3999,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4019,19 +4019,19 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Hanna Bäckman</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Hanna Bäckman</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16944727</v>
+        <v>16944728</v>
       </c>
       <c r="B35" t="n">
         <v>80083</v>
@@ -4143,32 +4143,32 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>120122596</v>
+        <v>120122502</v>
       </c>
       <c r="B36" t="n">
-        <v>91210</v>
+        <v>91245</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4178,10 +4178,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>684500</v>
+        <v>684280</v>
       </c>
       <c r="R36" t="n">
-        <v>7093584</v>
+        <v>7094021</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4208,12 +4208,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4240,32 +4240,32 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>120122502</v>
+        <v>120122596</v>
       </c>
       <c r="B37" t="n">
-        <v>91245</v>
+        <v>91210</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4275,10 +4275,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>684280</v>
+        <v>684500</v>
       </c>
       <c r="R37" t="n">
-        <v>7094021</v>
+        <v>7093584</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4305,12 +4305,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4561,45 +4561,45 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>120122517</v>
+        <v>104556980</v>
       </c>
       <c r="B40" t="n">
-        <v>79012</v>
+        <v>80118</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>185</v>
+        <v>6463</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Grundtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>684307</v>
+        <v>684648</v>
       </c>
       <c r="R40" t="n">
-        <v>7094164</v>
+        <v>7093619</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4626,12 +4626,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4646,57 +4646,57 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Hanna Bäckman</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Hanna Bäckman</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>104556980</v>
+        <v>120122517</v>
       </c>
       <c r="B41" t="n">
-        <v>80118</v>
+        <v>79012</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6463</v>
+        <v>185</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Grundtjärnen, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>684648</v>
+        <v>684307</v>
       </c>
       <c r="R41" t="n">
-        <v>7093619</v>
+        <v>7094164</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4723,12 +4723,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4743,12 +4743,12 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Hanna Bäckman</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Hanna Bäckman</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
@@ -5158,32 +5158,32 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>120122606</v>
+        <v>120122505</v>
       </c>
       <c r="B46" t="n">
-        <v>92527</v>
+        <v>80111</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4361</v>
+        <v>6461</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5193,10 +5193,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>684552</v>
+        <v>684262</v>
       </c>
       <c r="R46" t="n">
-        <v>7093912</v>
+        <v>7094016</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5223,12 +5223,12 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5255,32 +5255,32 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>120122505</v>
+        <v>120122606</v>
       </c>
       <c r="B47" t="n">
-        <v>80111</v>
+        <v>92527</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6461</v>
+        <v>4361</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5290,10 +5290,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>684262</v>
+        <v>684552</v>
       </c>
       <c r="R47" t="n">
-        <v>7094016</v>
+        <v>7093912</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5320,12 +5320,12 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5464,10 +5464,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>120122508</v>
+        <v>120122496</v>
       </c>
       <c r="B49" t="n">
-        <v>57761</v>
+        <v>92547</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5475,21 +5475,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>103031</v>
+        <v>4366</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lavskrika</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Perisoreus infaustus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5499,10 +5499,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>684033</v>
+        <v>684590</v>
       </c>
       <c r="R49" t="n">
-        <v>7093930</v>
+        <v>7094035</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5561,10 +5561,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>120122496</v>
+        <v>120122508</v>
       </c>
       <c r="B50" t="n">
-        <v>92547</v>
+        <v>57761</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5572,21 +5572,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4366</v>
+        <v>103031</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Lavskrika</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Perisoreus infaustus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5596,10 +5596,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>684590</v>
+        <v>684033</v>
       </c>
       <c r="R50" t="n">
-        <v>7094035</v>
+        <v>7093930</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>

--- a/artfynd/Björnberget NV artfynd.xlsx
+++ b/artfynd/Björnberget NV artfynd.xlsx
@@ -792,32 +792,32 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>120122519</v>
+        <v>120122600</v>
       </c>
       <c r="B3" t="n">
-        <v>80111</v>
+        <v>91245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6461</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>684310</v>
+        <v>684484</v>
       </c>
       <c r="R3" t="n">
-        <v>7094174</v>
+        <v>7093785</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,12 +857,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -889,32 +889,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>120122600</v>
+        <v>120122519</v>
       </c>
       <c r="B4" t="n">
-        <v>91245</v>
+        <v>80111</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>6461</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>684484</v>
+        <v>684310</v>
       </c>
       <c r="R4" t="n">
-        <v>7093785</v>
+        <v>7094174</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -954,12 +954,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1210,7 +1210,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>120122603</v>
+        <v>120122500</v>
       </c>
       <c r="B7" t="n">
         <v>78980</v>
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>684513</v>
+        <v>684352</v>
       </c>
       <c r="R7" t="n">
-        <v>7093798</v>
+        <v>7093728</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1275,12 +1275,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1307,10 +1307,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>120122500</v>
+        <v>120122515</v>
       </c>
       <c r="B8" t="n">
-        <v>78980</v>
+        <v>91263</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1318,21 +1318,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>684352</v>
+        <v>684273</v>
       </c>
       <c r="R8" t="n">
-        <v>7093728</v>
+        <v>7094150</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1404,10 +1404,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>120122515</v>
+        <v>120122603</v>
       </c>
       <c r="B9" t="n">
-        <v>91263</v>
+        <v>78980</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1415,21 +1415,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>684273</v>
+        <v>684513</v>
       </c>
       <c r="R9" t="n">
-        <v>7094150</v>
+        <v>7093798</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1469,12 +1469,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1501,7 +1501,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16944723</v>
+        <v>16944725</v>
       </c>
       <c r="B10" t="n">
         <v>80083</v>
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>685007</v>
+        <v>684808</v>
       </c>
       <c r="R10" t="n">
-        <v>7093193</v>
+        <v>7093212</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16944725</v>
+        <v>16944723</v>
       </c>
       <c r="B11" t="n">
         <v>80083</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>684808</v>
+        <v>685007</v>
       </c>
       <c r="R11" t="n">
-        <v>7093212</v>
+        <v>7093193</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -2225,32 +2225,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>120122511</v>
+        <v>120122518</v>
       </c>
       <c r="B17" t="n">
-        <v>80043</v>
+        <v>78739</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>229497</v>
+        <v>228912</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2260,10 +2260,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>684098</v>
+        <v>684331</v>
       </c>
       <c r="R17" t="n">
-        <v>7094023</v>
+        <v>7094168</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2322,32 +2322,32 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>120122518</v>
+        <v>120122511</v>
       </c>
       <c r="B18" t="n">
-        <v>78739</v>
+        <v>80043</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>228912</v>
+        <v>229497</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2357,10 +2357,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>684331</v>
+        <v>684098</v>
       </c>
       <c r="R18" t="n">
-        <v>7094168</v>
+        <v>7094023</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2419,32 +2419,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16944378</v>
+        <v>16944984</v>
       </c>
       <c r="B19" t="n">
-        <v>92529</v>
+        <v>80112</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4362</v>
+        <v>6462</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2454,10 +2454,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>685054</v>
+        <v>684500</v>
       </c>
       <c r="R19" t="n">
-        <v>7093213</v>
+        <v>7093343</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2500,6 +2500,21 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>björkar</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2516,32 +2531,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>16944984</v>
+        <v>16944378</v>
       </c>
       <c r="B20" t="n">
-        <v>80112</v>
+        <v>92529</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6462</v>
+        <v>4362</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2551,10 +2566,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>684500</v>
+        <v>685054</v>
       </c>
       <c r="R20" t="n">
-        <v>7093343</v>
+        <v>7093213</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2597,21 +2612,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>björkar</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Betula</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Betula</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2628,10 +2628,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>120122609</v>
+        <v>120122497</v>
       </c>
       <c r="B21" t="n">
-        <v>78739</v>
+        <v>92563</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2639,21 +2639,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>228912</v>
+        <v>5449</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>684568</v>
+        <v>684590</v>
       </c>
       <c r="R21" t="n">
-        <v>7093941</v>
+        <v>7094035</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2693,12 +2693,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2822,10 +2822,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>120122497</v>
+        <v>120122609</v>
       </c>
       <c r="B23" t="n">
-        <v>92563</v>
+        <v>78739</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2833,21 +2833,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5449</v>
+        <v>228912</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>684590</v>
+        <v>684568</v>
       </c>
       <c r="R23" t="n">
-        <v>7094035</v>
+        <v>7093941</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2887,12 +2887,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2919,32 +2919,32 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>120122598</v>
+        <v>120122510</v>
       </c>
       <c r="B24" t="n">
-        <v>5176</v>
+        <v>91245</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2954,10 +2954,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>684461</v>
+        <v>684030</v>
       </c>
       <c r="R24" t="n">
-        <v>7093769</v>
+        <v>7093983</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2984,12 +2984,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3016,32 +3016,32 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>120122510</v>
+        <v>120122598</v>
       </c>
       <c r="B25" t="n">
-        <v>91245</v>
+        <v>5176</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3051,10 +3051,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>684030</v>
+        <v>684461</v>
       </c>
       <c r="R25" t="n">
-        <v>7093983</v>
+        <v>7093769</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3081,12 +3081,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3225,10 +3225,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>120122499</v>
+        <v>104556982</v>
       </c>
       <c r="B27" t="n">
-        <v>78739</v>
+        <v>78980</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3236,34 +3236,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Grundtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>684496</v>
+        <v>684620</v>
       </c>
       <c r="R27" t="n">
-        <v>7093897</v>
+        <v>7093690</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3290,12 +3290,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3310,22 +3310,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Hanna Bäckman</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Hanna Bäckman</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>120122516</v>
+        <v>120122499</v>
       </c>
       <c r="B28" t="n">
-        <v>78980</v>
+        <v>78739</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3333,21 +3333,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3357,10 +3357,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>684307</v>
+        <v>684496</v>
       </c>
       <c r="R28" t="n">
-        <v>7094164</v>
+        <v>7093897</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>104556982</v>
+        <v>120122516</v>
       </c>
       <c r="B29" t="n">
         <v>78980</v>
@@ -3450,14 +3450,14 @@
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Grundtjärnen, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>684620</v>
+        <v>684307</v>
       </c>
       <c r="R29" t="n">
-        <v>7093690</v>
+        <v>7094164</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3504,12 +3504,12 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Hanna Bäckman</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Hanna Bäckman</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
@@ -3837,45 +3837,45 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>120122593</v>
+        <v>104556979</v>
       </c>
       <c r="B33" t="n">
-        <v>92551</v>
+        <v>79066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2059</v>
+        <v>6450</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Grundtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>684583</v>
+        <v>684646</v>
       </c>
       <c r="R33" t="n">
-        <v>7093396</v>
+        <v>7093617</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3902,12 +3902,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3922,57 +3922,57 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Hanna Bäckman</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Hanna Bäckman</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>104556979</v>
+        <v>120122593</v>
       </c>
       <c r="B34" t="n">
-        <v>79066</v>
+        <v>92551</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6450</v>
+        <v>2059</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Grundtjärnen, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>684646</v>
+        <v>684583</v>
       </c>
       <c r="R34" t="n">
-        <v>7093617</v>
+        <v>7093396</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3999,12 +3999,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4019,12 +4019,12 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Hanna Bäckman</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Hanna Bäckman</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
@@ -4143,32 +4143,32 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>120122502</v>
+        <v>120122596</v>
       </c>
       <c r="B36" t="n">
-        <v>91245</v>
+        <v>91210</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4178,10 +4178,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>684280</v>
+        <v>684500</v>
       </c>
       <c r="R36" t="n">
-        <v>7094021</v>
+        <v>7093584</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4208,12 +4208,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4240,32 +4240,32 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>120122596</v>
+        <v>120122502</v>
       </c>
       <c r="B37" t="n">
-        <v>91210</v>
+        <v>91245</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4275,10 +4275,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>684500</v>
+        <v>684280</v>
       </c>
       <c r="R37" t="n">
-        <v>7093584</v>
+        <v>7094021</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4305,12 +4305,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4755,10 +4755,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>120122608</v>
+        <v>120122512</v>
       </c>
       <c r="B42" t="n">
-        <v>92535</v>
+        <v>91210</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4766,21 +4766,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4364</v>
+        <v>5447</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>684563</v>
+        <v>684148</v>
       </c>
       <c r="R42" t="n">
-        <v>7093942</v>
+        <v>7094055</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -4852,10 +4852,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>120122512</v>
+        <v>120122608</v>
       </c>
       <c r="B43" t="n">
-        <v>91210</v>
+        <v>92535</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4863,21 +4863,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5447</v>
+        <v>4364</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4887,10 +4887,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>684148</v>
+        <v>684563</v>
       </c>
       <c r="R43" t="n">
-        <v>7094055</v>
+        <v>7093942</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4917,12 +4917,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5158,32 +5158,32 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>120122505</v>
+        <v>120122606</v>
       </c>
       <c r="B46" t="n">
-        <v>80111</v>
+        <v>92527</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6461</v>
+        <v>4361</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5193,10 +5193,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>684262</v>
+        <v>684552</v>
       </c>
       <c r="R46" t="n">
-        <v>7094016</v>
+        <v>7093912</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5223,12 +5223,12 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5255,32 +5255,32 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>120122606</v>
+        <v>120122505</v>
       </c>
       <c r="B47" t="n">
-        <v>92527</v>
+        <v>80111</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4361</v>
+        <v>6461</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5290,10 +5290,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>684552</v>
+        <v>684262</v>
       </c>
       <c r="R47" t="n">
-        <v>7093912</v>
+        <v>7094016</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5320,12 +5320,12 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5658,32 +5658,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>120122507</v>
+        <v>120122604</v>
       </c>
       <c r="B51" t="n">
-        <v>78739</v>
+        <v>80111</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>228912</v>
+        <v>6461</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5693,10 +5693,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>684044</v>
+        <v>684530</v>
       </c>
       <c r="R51" t="n">
-        <v>7093921</v>
+        <v>7093816</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5723,12 +5723,12 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5755,32 +5755,32 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>120122604</v>
+        <v>120122507</v>
       </c>
       <c r="B52" t="n">
-        <v>80111</v>
+        <v>78739</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6461</v>
+        <v>228912</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -5790,10 +5790,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>684530</v>
+        <v>684044</v>
       </c>
       <c r="R52" t="n">
-        <v>7093816</v>
+        <v>7093921</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5820,12 +5820,12 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD52" t="b">
